--- a/FCCS_Jul11 2.xlsx
+++ b/FCCS_Jul11 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkumaranumukonda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC505F-6468-440A-8513-6D2DD38B679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19865533-C99F-4D5A-A2F5-E47E67E23650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{15BAB065-57B1-4FB3-9215-508BB507435C}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>RICEF_ID</t>
   </si>
@@ -268,12 +268,34 @@
         }
 }</t>
   </si>
+  <si>
+    <t>TestingStatusfrom oic</t>
+  </si>
+  <si>
+    <t>11/8 - Completed with warnings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/8 - Completed with warnings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need clarification on  scenario and entity field values</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +320,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA533A5F-AF2E-4AE0-809F-64E9C6404747}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,9 +768,10 @@
     <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.1796875" customWidth="1"/>
     <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,8 +799,11 @@
       <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -794,8 +827,11 @@
       <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="173.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="173.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -820,8 +856,11 @@
       <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
@@ -832,7 +871,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
@@ -843,7 +882,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -864,8 +903,11 @@
         <v>28</v>
       </c>
       <c r="I6" s="9"/>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -874,7 +916,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -888,7 +930,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -897,7 +939,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -912,6 +954,9 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
+      <c r="J10" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
